--- a/results/tes_by_rural.xlsx
+++ b/results/tes_by_rural.xlsx
@@ -1353,7 +1353,7 @@
         <v>-4.037865123952138</v>
       </c>
       <c r="G20">
-        <v>5.393984953042842e-05</v>
+        <v>5.393984953042842E-05</v>
       </c>
       <c r="H20">
         <v>14.17828897737215</v>
@@ -1553,7 +1553,7 @@
         <v>15.72191048365791</v>
       </c>
       <c r="G24">
-        <v>1.070465164316684e-55</v>
+        <v>1.070465164316684E-55</v>
       </c>
       <c r="H24">
         <v>182.6078073713163</v>
@@ -2153,7 +2153,7 @@
         <v>9.36146080827862</v>
       </c>
       <c r="G36">
-        <v>7.864176690101172e-21</v>
+        <v>7.864176690101172E-21</v>
       </c>
       <c r="H36">
         <v>66.78519425652719</v>
@@ -2244,34 +2244,34 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>-0.002390519505758688</v>
+        <v>0.018183960625594</v>
       </c>
       <c r="E38">
-        <v>0.005996820736475463</v>
+        <v>0.007648135094254596</v>
       </c>
       <c r="F38">
-        <v>-0.3986311432020025</v>
+        <v>2.377567917080085</v>
       </c>
       <c r="G38">
-        <v>0.6901650107061124</v>
+        <v>0.01742723332598848</v>
       </c>
       <c r="H38">
-        <v>0.5349867595670171</v>
+        <v>5.842512638308467</v>
       </c>
       <c r="I38">
-        <v>-0.01414407217099356</v>
+        <v>0.003193891291958142</v>
       </c>
       <c r="J38">
-        <v>0.009363033159476179</v>
+        <v>0.03317402995922986</v>
       </c>
       <c r="K38">
-        <v>0.04955529494495609</v>
+        <v>0.007737853324009218</v>
       </c>
       <c r="L38">
-        <v>0.02705945534375906</v>
+        <v>0.04073226279643898</v>
       </c>
       <c r="M38">
-        <v>0.02705945534375906</v>
+        <v>0.04073226279643898</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -2294,34 +2294,34 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>-0.008347465941699786</v>
+        <v>0.008648643972275027</v>
       </c>
       <c r="E39">
-        <v>1147.591805562366</v>
+        <v>0.008661438160342134</v>
       </c>
       <c r="F39">
-        <v>-7.273898176372213e-06</v>
+        <v>0.9985228563859421</v>
       </c>
       <c r="G39">
-        <v>0.9999941962689483</v>
+        <v>0.3180258868525573</v>
       </c>
       <c r="H39">
-        <v>8.373038304461351e-06</v>
+        <v>1.65278389128409</v>
       </c>
       <c r="I39">
-        <v>-2249.246955321471</v>
+        <v>-0.008327462876316414</v>
       </c>
       <c r="J39">
-        <v>2249.230260389587</v>
+        <v>0.02562475082086647</v>
       </c>
       <c r="K39">
-        <v>0.2205174236439926</v>
+        <v>0.08830901329575819</v>
       </c>
       <c r="L39">
-        <v>0.1892256426800434</v>
+        <v>0.1054009814361645</v>
       </c>
       <c r="M39">
-        <v>0.1892256426800434</v>
+        <v>0.1054009814361645</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>-6.429415529523952</v>
       </c>
       <c r="G46">
-        <v>1.280955182832449e-10</v>
+        <v>1.280955182832449E-10</v>
       </c>
       <c r="H46">
         <v>32.8620609483201</v>
@@ -2844,38 +2844,38 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0.0005913421225233693</v>
+        <v>-0.00176685436690486</v>
       </c>
       <c r="E50">
-        <v>0.0101351022515431</v>
+        <v>0.00164301947374939</v>
       </c>
       <c r="F50">
-        <v>0.05834594539323328</v>
+        <v>-1.075370313702294</v>
       </c>
       <c r="G50">
-        <v>0.9534730706931522</v>
+        <v>0.282208967233109</v>
       </c>
       <c r="H50">
-        <v>0.06873590236514354</v>
+        <v>1.825164264368212</v>
       </c>
       <c r="I50">
-        <v>-0.01927309327013191</v>
+        <v>-0.004987113361351616</v>
       </c>
       <c r="J50">
-        <v>0.02045577751517865</v>
+        <v>0.001453404627541896</v>
       </c>
       <c r="K50">
-        <v>-0.004909041780420016</v>
+        <v>0.05483135024086018</v>
       </c>
       <c r="L50">
-        <v>0.008535668571705603</v>
+        <v>0.06139172881079504</v>
       </c>
       <c r="M50">
-        <v>0.008535668571705603</v>
+        <v>0.06139172881079504</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>IND</t>
         </is>
       </c>
     </row>
@@ -2894,38 +2894,38 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>-0.00654810488796226</v>
+        <v>-0.001823887874313308</v>
       </c>
       <c r="E51">
-        <v>0.006245663393433919</v>
+        <v>0.001711961105778126</v>
       </c>
       <c r="F51">
-        <v>-1.048424238623922</v>
+        <v>-1.06537927068402</v>
       </c>
       <c r="G51">
-        <v>0.2944431909219636</v>
+        <v>0.2867043335050653</v>
       </c>
       <c r="H51">
-        <v>1.763938783687474</v>
+        <v>1.80236438396425</v>
       </c>
       <c r="I51">
-        <v>-0.01878938019865296</v>
+        <v>-0.005179269984571799</v>
       </c>
       <c r="J51">
-        <v>0.005693170422728436</v>
+        <v>0.001531494235945184</v>
       </c>
       <c r="K51">
-        <v>0.0303678535179897</v>
+        <v>0.06534139151633503</v>
       </c>
       <c r="L51">
-        <v>0.02332252438864319</v>
+        <v>0.06646349538639174</v>
       </c>
       <c r="M51">
-        <v>0.02332252438864319</v>
+        <v>0.06646349538639174</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>IND</t>
         </is>
       </c>
     </row>
@@ -2944,38 +2944,38 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0.001078229007944635</v>
+        <v>0.0005913421225233693</v>
       </c>
       <c r="E52">
-        <v>0.002182694099900204</v>
+        <v>0.0101351022515431</v>
       </c>
       <c r="F52">
-        <v>0.4939899768794598</v>
+        <v>0.05834594539323328</v>
       </c>
       <c r="G52">
-        <v>0.6213132581663635</v>
+        <v>0.9534730706931522</v>
       </c>
       <c r="H52">
-        <v>0.686607254696334</v>
+        <v>0.06873590236514354</v>
       </c>
       <c r="I52">
-        <v>-0.003199772817127835</v>
+        <v>-0.01927309327013191</v>
       </c>
       <c r="J52">
-        <v>0.005356230833017105</v>
+        <v>0.02045577751517865</v>
       </c>
       <c r="K52">
-        <v>0.02503802326891599</v>
+        <v>-0.004909041780420016</v>
       </c>
       <c r="L52">
-        <v>0.005819937651869056</v>
+        <v>0.008535668571705603</v>
       </c>
       <c r="M52">
-        <v>0.005819937651869056</v>
+        <v>0.008535668571705603</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>JAM</t>
         </is>
       </c>
     </row>
@@ -2994,38 +2994,38 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>-0.002087672083022701</v>
+        <v>-0.00654810488796226</v>
       </c>
       <c r="E53">
-        <v>0.001710157735956273</v>
+        <v>0.006245663393433919</v>
       </c>
       <c r="F53">
-        <v>-1.220748261478543</v>
+        <v>-1.048424238623922</v>
       </c>
       <c r="G53">
-        <v>0.2221813486669504</v>
+        <v>0.2944431909219636</v>
       </c>
       <c r="H53">
-        <v>2.170190382188657</v>
+        <v>1.763938783687474</v>
       </c>
       <c r="I53">
-        <v>-0.005439519653379554</v>
+        <v>-0.01878938019865296</v>
       </c>
       <c r="J53">
-        <v>0.001264175487334153</v>
+        <v>0.005693170422728436</v>
       </c>
       <c r="K53">
-        <v>0.0413490466972342</v>
+        <v>0.0303678535179897</v>
       </c>
       <c r="L53">
-        <v>0.03272460352263788</v>
+        <v>0.02332252438864319</v>
       </c>
       <c r="M53">
-        <v>0.03272460352263788</v>
+        <v>0.02332252438864319</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>JAM</t>
         </is>
       </c>
     </row>
@@ -3044,38 +3044,38 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>-0.005240200154743386</v>
+        <v>0.001078229007944635</v>
       </c>
       <c r="E54">
-        <v>0.006781716831257261</v>
+        <v>0.002182694099900204</v>
       </c>
       <c r="F54">
-        <v>-0.77269521643709</v>
+        <v>0.4939899768794598</v>
       </c>
       <c r="G54">
-        <v>0.4397027783345285</v>
+        <v>0.6213132581663635</v>
       </c>
       <c r="H54">
-        <v>1.185399446401431</v>
+        <v>0.686607254696334</v>
       </c>
       <c r="I54">
-        <v>-0.01853212089735671</v>
+        <v>-0.003199772817127835</v>
       </c>
       <c r="J54">
-        <v>0.008051720587869942</v>
+        <v>0.005356230833017105</v>
       </c>
       <c r="K54">
-        <v>0.01392643987871444</v>
+        <v>0.02503802326891599</v>
       </c>
       <c r="L54">
-        <v>0.02247852930202823</v>
+        <v>0.005819937651869056</v>
       </c>
       <c r="M54">
-        <v>0.02247852930202823</v>
+        <v>0.005819937651869056</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>KEN</t>
         </is>
       </c>
     </row>
@@ -3094,38 +3094,38 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>0.01237148369832748</v>
+        <v>-0.002087672083022701</v>
       </c>
       <c r="E55">
-        <v>0.008924673223941904</v>
+        <v>0.001710157735956273</v>
       </c>
       <c r="F55">
-        <v>1.386211392607512</v>
+        <v>-1.220748261478543</v>
       </c>
       <c r="G55">
-        <v>0.1656823637440391</v>
+        <v>0.2221813486669504</v>
       </c>
       <c r="H55">
-        <v>2.593508053542006</v>
+        <v>2.170190382188657</v>
       </c>
       <c r="I55">
-        <v>-0.005120554394387619</v>
+        <v>-0.005439519653379554</v>
       </c>
       <c r="J55">
-        <v>0.02986352179104258</v>
+        <v>0.001264175487334153</v>
       </c>
       <c r="K55">
-        <v>-0.01775925770199397</v>
+        <v>0.0413490466972342</v>
       </c>
       <c r="L55">
-        <v>-0.001452945154173289</v>
+        <v>0.03272460352263788</v>
       </c>
       <c r="M55">
-        <v>-0.001452945154173289</v>
+        <v>0.03272460352263788</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>KEN</t>
         </is>
       </c>
     </row>
@@ -3144,38 +3144,38 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0.006226778930276164</v>
+        <v>-0.005240200154743386</v>
       </c>
       <c r="E56">
-        <v>0.001396123291093074</v>
+        <v>0.006781716831257261</v>
       </c>
       <c r="F56">
-        <v>4.460049459815974</v>
+        <v>-0.77269521643709</v>
       </c>
       <c r="G56">
-        <v>8.194074088306934e-06</v>
+        <v>0.4397027783345285</v>
       </c>
       <c r="H56">
-        <v>16.89698763204052</v>
+        <v>1.185399446401431</v>
       </c>
       <c r="I56">
-        <v>0.00349042756175621</v>
+        <v>-0.01853212089735671</v>
       </c>
       <c r="J56">
-        <v>0.008963130298796118</v>
+        <v>0.008051720587869942</v>
       </c>
       <c r="K56">
-        <v>0.08552138568129439</v>
+        <v>0.01392643987871444</v>
       </c>
       <c r="L56">
-        <v>0.1001923219718638</v>
+        <v>0.02247852930202823</v>
       </c>
       <c r="M56">
-        <v>0.1001923219718638</v>
+        <v>0.02247852930202823</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>KGZ</t>
         </is>
       </c>
     </row>
@@ -3194,38 +3194,38 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>-0.0007917261333090944</v>
+        <v>0.01237148369832748</v>
       </c>
       <c r="E57">
-        <v>0.002750204007446683</v>
+        <v>0.008924673223941904</v>
       </c>
       <c r="F57">
-        <v>-0.2878790559410686</v>
+        <v>1.386211392607512</v>
       </c>
       <c r="G57">
-        <v>0.7734393195041455</v>
+        <v>0.1656823637440391</v>
       </c>
       <c r="H57">
-        <v>0.3706399859984252</v>
+        <v>2.593508053542006</v>
       </c>
       <c r="I57">
-        <v>-0.006182026938042318</v>
+        <v>-0.005120554394387619</v>
       </c>
       <c r="J57">
-        <v>0.004598574671424129</v>
+        <v>0.02986352179104258</v>
       </c>
       <c r="K57">
-        <v>0.04406966107107104</v>
+        <v>-0.01775925770199397</v>
       </c>
       <c r="L57">
-        <v>0.06036930661898569</v>
+        <v>-0.001452945154173289</v>
       </c>
       <c r="M57">
-        <v>0.06036930661898569</v>
+        <v>-0.001452945154173289</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>KGZ</t>
         </is>
       </c>
     </row>
@@ -3244,38 +3244,38 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0.004838362438239758</v>
+        <v>0.006226778930276164</v>
       </c>
       <c r="E58">
-        <v>0.004986494032597962</v>
+        <v>0.001396123291093074</v>
       </c>
       <c r="F58">
-        <v>0.9702934379566425</v>
+        <v>4.460049459815974</v>
       </c>
       <c r="G58">
-        <v>0.3319002472371724</v>
+        <v>8.194074088306934E-06</v>
       </c>
       <c r="H58">
-        <v>1.591178390786878</v>
+        <v>16.89698763204052</v>
       </c>
       <c r="I58">
-        <v>-0.004934986274776143</v>
+        <v>0.00349042756175621</v>
       </c>
       <c r="J58">
-        <v>0.01461171115125566</v>
+        <v>0.008963130298796118</v>
       </c>
       <c r="K58">
-        <v>-0.01126385049926648</v>
+        <v>0.08552138568129439</v>
       </c>
       <c r="L58">
-        <v>-0.001310377454504857</v>
+        <v>0.1001923219718638</v>
       </c>
       <c r="M58">
-        <v>-0.001310377454504857</v>
+        <v>0.1001923219718638</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>KHM</t>
         </is>
       </c>
     </row>
@@ -3294,38 +3294,38 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>-0.006571335682324774</v>
+        <v>-0.0007917261333090944</v>
       </c>
       <c r="E59">
-        <v>0.004819092481996808</v>
+        <v>0.002750204007446683</v>
       </c>
       <c r="F59">
-        <v>-1.363604393747164</v>
+        <v>-0.2878790559410686</v>
       </c>
       <c r="G59">
-        <v>0.172692108520711</v>
+        <v>0.7734393195041455</v>
       </c>
       <c r="H59">
-        <v>2.533725937082254</v>
+        <v>0.3706399859984252</v>
       </c>
       <c r="I59">
-        <v>-0.01601658338520625</v>
+        <v>-0.006182026938042318</v>
       </c>
       <c r="J59">
-        <v>0.002873912020556705</v>
+        <v>0.004598574671424129</v>
       </c>
       <c r="K59">
-        <v>0.06491171519842766</v>
+        <v>0.04406966107107104</v>
       </c>
       <c r="L59">
-        <v>0.06461982845199922</v>
+        <v>0.06036930661898569</v>
       </c>
       <c r="M59">
-        <v>0.06461982845199922</v>
+        <v>0.06036930661898569</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>KHM</t>
         </is>
       </c>
     </row>
@@ -3344,38 +3344,38 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0.001604232244383831</v>
+        <v>0.004838362438239758</v>
       </c>
       <c r="E60">
-        <v>0.001427224409941709</v>
+        <v>0.004986494032597962</v>
       </c>
       <c r="F60">
-        <v>1.124022426472758</v>
+        <v>0.9702934379566425</v>
       </c>
       <c r="G60">
-        <v>0.2610035120809207</v>
+        <v>0.3319002472371724</v>
       </c>
       <c r="H60">
-        <v>1.937858874959492</v>
+        <v>1.591178390786878</v>
       </c>
       <c r="I60">
-        <v>-0.001193076196958349</v>
+        <v>-0.004934986274776143</v>
       </c>
       <c r="J60">
-        <v>0.00440154068572601</v>
+        <v>0.01461171115125566</v>
       </c>
       <c r="K60">
-        <v>0.01604451755860443</v>
+        <v>-0.01126385049926648</v>
       </c>
       <c r="L60">
-        <v>0.01336386319485673</v>
+        <v>-0.001310377454504857</v>
       </c>
       <c r="M60">
-        <v>0.01336386319485673</v>
+        <v>-0.001310377454504857</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>LAO</t>
         </is>
       </c>
     </row>
@@ -3394,38 +3394,38 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>-0.003682964080478147</v>
+        <v>-0.006571335682324774</v>
       </c>
       <c r="E61">
-        <v>0.004534401343264763</v>
+        <v>0.004819092481996808</v>
       </c>
       <c r="F61">
-        <v>-0.8122271942135625</v>
+        <v>-1.363604393747164</v>
       </c>
       <c r="G61">
-        <v>0.4166612780419413</v>
+        <v>0.172692108520711</v>
       </c>
       <c r="H61">
-        <v>1.263053063895648</v>
+        <v>2.533725937082254</v>
       </c>
       <c r="I61">
-        <v>-0.01257022740472712</v>
+        <v>-0.01601658338520625</v>
       </c>
       <c r="J61">
-        <v>0.005204299243770829</v>
+        <v>0.002873912020556705</v>
       </c>
       <c r="K61">
-        <v>0.01332140117327121</v>
+        <v>0.06491171519842766</v>
       </c>
       <c r="L61">
-        <v>0.009558923074221553</v>
+        <v>0.06461982845199922</v>
       </c>
       <c r="M61">
-        <v>0.009558923074221553</v>
+        <v>0.06461982845199922</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>LAO</t>
         </is>
       </c>
     </row>
@@ -3444,38 +3444,38 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>-0.00751311452694323</v>
+        <v>0.001604232244383831</v>
       </c>
       <c r="E62">
-        <v>0.003806403240757928</v>
+        <v>0.001427224409941709</v>
       </c>
       <c r="F62">
-        <v>-1.973809407919489</v>
+        <v>1.124022426472758</v>
       </c>
       <c r="G62">
-        <v>0.04840341869647997</v>
+        <v>0.2610035120809207</v>
       </c>
       <c r="H62">
-        <v>4.368747242227802</v>
+        <v>1.937858874959492</v>
       </c>
       <c r="I62">
-        <v>-0.01497352778946531</v>
+        <v>-0.001193076196958349</v>
       </c>
       <c r="J62">
-        <v>-5.270126442114866e-05</v>
+        <v>0.00440154068572601</v>
       </c>
       <c r="K62">
-        <v>0.004553579375143366</v>
+        <v>0.01604451755860443</v>
       </c>
       <c r="L62">
-        <v>-0.001894929137511354</v>
+        <v>0.01336386319485673</v>
       </c>
       <c r="M62">
-        <v>-0.001894929137511354</v>
+        <v>0.01336386319485673</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>LSO</t>
         </is>
       </c>
     </row>
@@ -3494,38 +3494,38 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>-0.01464079251164943</v>
+        <v>-0.003682964080478147</v>
       </c>
       <c r="E63">
-        <v>0.005949992489877688</v>
+        <v>0.004534401343264763</v>
       </c>
       <c r="F63">
-        <v>-2.460640502749677</v>
+        <v>-0.8122271942135625</v>
       </c>
       <c r="G63">
-        <v>0.01386892560609427</v>
+        <v>0.4166612780419413</v>
       </c>
       <c r="H63">
-        <v>6.172000160065376</v>
+        <v>1.263053063895648</v>
       </c>
       <c r="I63">
-        <v>-0.0263025635000935</v>
+        <v>-0.01257022740472712</v>
       </c>
       <c r="J63">
-        <v>-0.002979021523205366</v>
+        <v>0.005204299243770829</v>
       </c>
       <c r="K63">
-        <v>0.0236493980488567</v>
+        <v>0.01332140117327121</v>
       </c>
       <c r="L63">
-        <v>0.007727156981953046</v>
+        <v>0.009558923074221553</v>
       </c>
       <c r="M63">
-        <v>0.007727156981953046</v>
+        <v>0.009558923074221553</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>LSO</t>
         </is>
       </c>
     </row>
@@ -3544,38 +3544,38 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>-0.01365827680842138</v>
+        <v>-0.00751311452694323</v>
       </c>
       <c r="E64">
-        <v>0.01327259906579263</v>
+        <v>0.003806403240757928</v>
       </c>
       <c r="F64">
-        <v>-1.029058192801345</v>
+        <v>-1.973809407919489</v>
       </c>
       <c r="G64">
-        <v>0.3034523302425954</v>
+        <v>0.04840341869647997</v>
       </c>
       <c r="H64">
-        <v>1.720458195619397</v>
+        <v>4.368747242227802</v>
       </c>
       <c r="I64">
-        <v>-0.03967209295861489</v>
+        <v>-0.01497352778946531</v>
       </c>
       <c r="J64">
-        <v>0.01235553934177213</v>
+        <v>-5.270126442114866E-05</v>
       </c>
       <c r="K64">
-        <v>0.09798440314869367</v>
+        <v>0.004553579375143366</v>
       </c>
       <c r="L64">
-        <v>0.05740979949862278</v>
+        <v>-0.001894929137511354</v>
       </c>
       <c r="M64">
-        <v>0.05740979949862278</v>
+        <v>-0.001894929137511354</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
@@ -3594,38 +3594,38 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>-0.0425670183154329</v>
+        <v>-0.01464079251164943</v>
       </c>
       <c r="E65">
-        <v>0.01336148397343457</v>
+        <v>0.005949992489877688</v>
       </c>
       <c r="F65">
-        <v>-3.185800200042529</v>
+        <v>-2.460640502749677</v>
       </c>
       <c r="G65">
-        <v>0.001443542524132626</v>
+        <v>0.01386892560609427</v>
       </c>
       <c r="H65">
-        <v>9.436170677294893</v>
+        <v>6.172000160065376</v>
       </c>
       <c r="I65">
-        <v>-0.06875504568337379</v>
+        <v>-0.0263025635000935</v>
       </c>
       <c r="J65">
-        <v>-0.01637899094749201</v>
+        <v>-0.002979021523205366</v>
       </c>
       <c r="K65">
-        <v>0.03315252225917824</v>
+        <v>0.0236493980488567</v>
       </c>
       <c r="L65">
-        <v>-0.003525397478649425</v>
+        <v>0.007727156981953046</v>
       </c>
       <c r="M65">
-        <v>-0.003525397478649425</v>
+        <v>0.007727156981953046</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
@@ -3644,38 +3644,38 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0.000481981880533332</v>
+        <v>-0.01365827680842138</v>
       </c>
       <c r="E66">
-        <v>0.002545393149100678</v>
+        <v>0.01327259906579263</v>
       </c>
       <c r="F66">
-        <v>0.1893545917272633</v>
+        <v>-1.029058192801345</v>
       </c>
       <c r="G66">
-        <v>0.8498149111362033</v>
+        <v>0.3034523302425954</v>
       </c>
       <c r="H66">
-        <v>0.2347794370051405</v>
+        <v>1.720458195619397</v>
       </c>
       <c r="I66">
-        <v>-0.004506897018198988</v>
+        <v>-0.03967209295861489</v>
       </c>
       <c r="J66">
-        <v>0.005470860779265653</v>
+        <v>0.01235553934177213</v>
       </c>
       <c r="K66">
-        <v>0.02075326330082576</v>
+        <v>0.09798440314869367</v>
       </c>
       <c r="L66">
-        <v>0.01764719043968014</v>
+        <v>0.05740979949862278</v>
       </c>
       <c r="M66">
-        <v>0.01764719043968014</v>
+        <v>0.05740979949862278</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MDA</t>
         </is>
       </c>
     </row>
@@ -3694,38 +3694,38 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>0.007349054158181785</v>
+        <v>-0.0425670183154329</v>
       </c>
       <c r="E67">
-        <v>0.001466636285804936</v>
+        <v>0.01336148397343457</v>
       </c>
       <c r="F67">
-        <v>5.010822539514895</v>
+        <v>-3.185800200042529</v>
       </c>
       <c r="G67">
-        <v>5.419787685458676e-07</v>
+        <v>0.001443542524132626</v>
       </c>
       <c r="H67">
-        <v>20.81526032760202</v>
+        <v>9.436170677294893</v>
       </c>
       <c r="I67">
-        <v>0.004474499859584517</v>
+        <v>-0.06875504568337379</v>
       </c>
       <c r="J67">
-        <v>0.01022360845677905</v>
+        <v>-0.01637899094749201</v>
       </c>
       <c r="K67">
-        <v>0.07411367144886272</v>
+        <v>0.03315252225917824</v>
       </c>
       <c r="L67">
-        <v>0.06008376229663782</v>
+        <v>-0.003525397478649425</v>
       </c>
       <c r="M67">
-        <v>0.06008376229663782</v>
+        <v>-0.003525397478649425</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MDA</t>
         </is>
       </c>
     </row>
@@ -3744,38 +3744,38 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0.01220106688588418</v>
+        <v>0.000481981880533332</v>
       </c>
       <c r="E68">
-        <v>0.00171677345331682</v>
+        <v>0.002545393149100678</v>
       </c>
       <c r="F68">
-        <v>7.106975508219574</v>
+        <v>0.1893545917272633</v>
       </c>
       <c r="G68">
-        <v>1.186134729289066e-12</v>
+        <v>0.8498149111362033</v>
       </c>
       <c r="H68">
-        <v>39.61686924829423</v>
+        <v>0.2347794370051405</v>
       </c>
       <c r="I68">
-        <v>0.008836252747768758</v>
+        <v>-0.004506897018198988</v>
       </c>
       <c r="J68">
-        <v>0.0155658810239996</v>
+        <v>0.005470860779265653</v>
       </c>
       <c r="K68">
-        <v>0.04539280778210672</v>
+        <v>0.02075326330082576</v>
       </c>
       <c r="L68">
-        <v>0.05459345978851479</v>
+        <v>0.01764719043968014</v>
       </c>
       <c r="M68">
-        <v>0.05459345978851479</v>
+        <v>0.01764719043968014</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>MDG</t>
         </is>
       </c>
     </row>
@@ -3794,38 +3794,38 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>0.007337002652191734</v>
+        <v>0.007349054158181785</v>
       </c>
       <c r="E69">
-        <v>0.001662104236798896</v>
+        <v>0.001466636285804936</v>
       </c>
       <c r="F69">
-        <v>4.414285512154353</v>
+        <v>5.010822539514895</v>
       </c>
       <c r="G69">
-        <v>1.013441369750144e-05</v>
+        <v>5.419787685458676E-07</v>
       </c>
       <c r="H69">
-        <v>16.590377846922</v>
+        <v>20.81526032760202</v>
       </c>
       <c r="I69">
-        <v>0.004079338209514465</v>
+        <v>0.004474499859584517</v>
       </c>
       <c r="J69">
-        <v>0.010594667094869</v>
+        <v>0.01022360845677905</v>
       </c>
       <c r="K69">
-        <v>0.04242171004092339</v>
+        <v>0.07411367144886272</v>
       </c>
       <c r="L69">
-        <v>0.05599931551393145</v>
+        <v>0.06008376229663782</v>
       </c>
       <c r="M69">
-        <v>0.05599931551393145</v>
+        <v>0.06008376229663782</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>MDG</t>
         </is>
       </c>
     </row>
@@ -3844,38 +3844,38 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0.001226824820945793</v>
+        <v>0.01220106688588418</v>
       </c>
       <c r="E70">
-        <v>0.004121578101483322</v>
+        <v>0.00171677345331682</v>
       </c>
       <c r="F70">
-        <v>0.2976590011734265</v>
+        <v>7.106975508219574</v>
       </c>
       <c r="G70">
-        <v>0.765963438027085</v>
+        <v>1.186134729289066E-12</v>
       </c>
       <c r="H70">
-        <v>0.3846525657082823</v>
+        <v>39.61686924829423</v>
       </c>
       <c r="I70">
-        <v>-0.006851319817430488</v>
+        <v>0.008836252747768758</v>
       </c>
       <c r="J70">
-        <v>0.009304969459322075</v>
+        <v>0.0155658810239996</v>
       </c>
       <c r="K70">
-        <v>0.01045490429922247</v>
+        <v>0.04539280778210672</v>
       </c>
       <c r="L70">
-        <v>0.01372372932894302</v>
+        <v>0.05459345978851479</v>
       </c>
       <c r="M70">
-        <v>0.01372372932894302</v>
+        <v>0.05459345978851479</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
@@ -3894,38 +3894,38 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>0.01102483215733926</v>
+        <v>0.007337002652191734</v>
       </c>
       <c r="E71">
-        <v>0.00598436650312288</v>
+        <v>0.001662104236798896</v>
       </c>
       <c r="F71">
-        <v>1.842272219053774</v>
+        <v>4.414285512154353</v>
       </c>
       <c r="G71">
-        <v>0.06543534127326318</v>
+        <v>1.013441369750144E-05</v>
       </c>
       <c r="H71">
-        <v>3.93378615178254</v>
+        <v>16.590377846922</v>
       </c>
       <c r="I71">
-        <v>-0.0007043106590694827</v>
+        <v>0.004079338209514465</v>
       </c>
       <c r="J71">
-        <v>0.02275397497374801</v>
+        <v>0.010594667094869</v>
       </c>
       <c r="K71">
-        <v>0.008682435935288616</v>
+        <v>0.04242171004092339</v>
       </c>
       <c r="L71">
-        <v>-0.005214654600054457</v>
+        <v>0.05599931551393145</v>
       </c>
       <c r="M71">
-        <v>-0.005214654600054457</v>
+        <v>0.05599931551393145</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
@@ -3944,38 +3944,38 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>-0.003882201531072819</v>
+        <v>0.001226824820945793</v>
       </c>
       <c r="E72">
-        <v>0.003994086961578461</v>
+        <v>0.004121578101483322</v>
       </c>
       <c r="F72">
-        <v>-0.9719872322305609</v>
+        <v>0.2976590011734265</v>
       </c>
       <c r="G72">
-        <v>0.3310569004136463</v>
+        <v>0.765963438027085</v>
       </c>
       <c r="H72">
-        <v>1.594848893294198</v>
+        <v>0.3846525657082823</v>
       </c>
       <c r="I72">
-        <v>-0.01171046812688761</v>
+        <v>-0.006851319817430488</v>
       </c>
       <c r="J72">
-        <v>0.003946065064741976</v>
+        <v>0.009304969459322075</v>
       </c>
       <c r="K72">
-        <v>0.09145217662184452</v>
+        <v>0.01045490429922247</v>
       </c>
       <c r="L72">
-        <v>0.1555626042355726</v>
+        <v>0.01372372932894302</v>
       </c>
       <c r="M72">
-        <v>0.1555626042355726</v>
+        <v>0.01372372932894302</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MNG</t>
         </is>
       </c>
     </row>
@@ -3994,38 +3994,38 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>-0.002855022129241385</v>
+        <v>0.01102483215733926</v>
       </c>
       <c r="E73">
-        <v>0.004287474086270914</v>
+        <v>0.00598436650312288</v>
       </c>
       <c r="F73">
-        <v>-0.6658983988692925</v>
+        <v>1.842272219053774</v>
       </c>
       <c r="G73">
-        <v>0.505476043997844</v>
+        <v>0.06543534127326318</v>
       </c>
       <c r="H73">
-        <v>0.9842853747164926</v>
+        <v>3.93378615178254</v>
       </c>
       <c r="I73">
-        <v>-0.01125831692298115</v>
+        <v>-0.0007043106590694827</v>
       </c>
       <c r="J73">
-        <v>0.005548272664498382</v>
+        <v>0.02275397497374801</v>
       </c>
       <c r="K73">
-        <v>0.1266027028114311</v>
+        <v>0.008682435935288616</v>
       </c>
       <c r="L73">
-        <v>0.120178751391427</v>
+        <v>-0.005214654600054457</v>
       </c>
       <c r="M73">
-        <v>0.120178751391427</v>
+        <v>-0.005214654600054457</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MNG</t>
         </is>
       </c>
     </row>
@@ -4044,38 +4044,38 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.001703586781846812</v>
+        <v>-0.003882201531072819</v>
       </c>
       <c r="E74">
-        <v>0.001371437939325793</v>
+        <v>0.003994086961578461</v>
       </c>
       <c r="F74">
-        <v>1.242190209995434</v>
+        <v>-0.9719872322305609</v>
       </c>
       <c r="G74">
-        <v>0.2141663909010258</v>
+        <v>0.3310569004136463</v>
       </c>
       <c r="H74">
-        <v>2.223195998948595</v>
+        <v>1.594848893294198</v>
       </c>
       <c r="I74">
-        <v>-0.000984382186263569</v>
+        <v>-0.01171046812688761</v>
       </c>
       <c r="J74">
-        <v>0.004391555749957192</v>
+        <v>0.003946065064741976</v>
       </c>
       <c r="K74">
-        <v>0.05468501304415441</v>
+        <v>0.09145217662184452</v>
       </c>
       <c r="L74">
-        <v>0.06260292641352744</v>
+        <v>0.1555626042355726</v>
       </c>
       <c r="M74">
-        <v>0.06260292641352744</v>
+        <v>0.1555626042355726</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MOZ</t>
         </is>
       </c>
     </row>
@@ -4094,38 +4094,38 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>-0.007142896245493965</v>
+        <v>-0.002855022129241385</v>
       </c>
       <c r="E75">
-        <v>0.003371609422830984</v>
+        <v>0.004287474086270914</v>
       </c>
       <c r="F75">
-        <v>-2.118542022431651</v>
+        <v>-0.6658983988692925</v>
       </c>
       <c r="G75">
-        <v>0.03412918994448443</v>
+        <v>0.505476043997844</v>
       </c>
       <c r="H75">
-        <v>4.872850017264232</v>
+        <v>0.9842853747164926</v>
       </c>
       <c r="I75">
-        <v>-0.01375112928417857</v>
+        <v>-0.01125831692298115</v>
       </c>
       <c r="J75">
-        <v>-0.000534663206809359</v>
+        <v>0.005548272664498382</v>
       </c>
       <c r="K75">
-        <v>0.08166955878418579</v>
+        <v>0.1266027028114311</v>
       </c>
       <c r="L75">
-        <v>0.06056550853188259</v>
+        <v>0.120178751391427</v>
       </c>
       <c r="M75">
-        <v>0.06056550853188259</v>
+        <v>0.120178751391427</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MOZ</t>
         </is>
       </c>
     </row>
@@ -4144,38 +4144,38 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>-0.000388027211133713</v>
+        <v>0.001703586781846812</v>
       </c>
       <c r="E76">
-        <v>0.005943834764549638</v>
+        <v>0.001371437939325793</v>
       </c>
       <c r="F76">
-        <v>-0.06528230115816715</v>
+        <v>1.242190209995434</v>
       </c>
       <c r="G76">
-        <v>0.9479492339109818</v>
+        <v>0.2141663909010258</v>
       </c>
       <c r="H76">
-        <v>0.07711829520050414</v>
+        <v>2.223195998948595</v>
       </c>
       <c r="I76">
-        <v>-0.01203772927970811</v>
+        <v>-0.000984382186263569</v>
       </c>
       <c r="J76">
-        <v>0.01126167485744069</v>
+        <v>0.004391555749957192</v>
       </c>
       <c r="K76">
-        <v>0.1136862484511338</v>
+        <v>0.05468501304415441</v>
       </c>
       <c r="L76">
-        <v>0.1322995848939345</v>
+        <v>0.06260292641352744</v>
       </c>
       <c r="M76">
-        <v>0.1322995848939345</v>
+        <v>0.06260292641352744</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MRT</t>
         </is>
       </c>
     </row>
@@ -4194,38 +4194,38 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>0.001930290522889261</v>
+        <v>-0.007142896245493965</v>
       </c>
       <c r="E77">
-        <v>0.001757244764324129</v>
+        <v>0.003371609422830984</v>
       </c>
       <c r="F77">
-        <v>1.098475614825172</v>
+        <v>-2.118542022431651</v>
       </c>
       <c r="G77">
-        <v>0.2719968600619706</v>
+        <v>0.03412918994448443</v>
       </c>
       <c r="H77">
-        <v>1.878338097820463</v>
+        <v>4.872850017264232</v>
       </c>
       <c r="I77">
-        <v>-0.001513845927207606</v>
+        <v>-0.01375112928417857</v>
       </c>
       <c r="J77">
-        <v>0.005374426972986128</v>
+        <v>-0.000534663206809359</v>
       </c>
       <c r="K77">
-        <v>0.05088090047104436</v>
+        <v>0.08166955878418579</v>
       </c>
       <c r="L77">
-        <v>0.06147841182155651</v>
+        <v>0.06056550853188259</v>
       </c>
       <c r="M77">
-        <v>0.06147841182155651</v>
+        <v>0.06056550853188259</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MRT</t>
         </is>
       </c>
     </row>
@@ -4244,38 +4244,38 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>-0.01125582068829345</v>
+        <v>-0.000388027211133713</v>
       </c>
       <c r="E78">
-        <v>0.004625569401961151</v>
+        <v>0.005943834764549638</v>
       </c>
       <c r="F78">
-        <v>-2.433391375237221</v>
+        <v>-0.06528230115816715</v>
       </c>
       <c r="G78">
-        <v>0.01495812285063439</v>
+        <v>0.9479492339109818</v>
       </c>
       <c r="H78">
-        <v>6.062927052249826</v>
+        <v>0.07711829520050414</v>
       </c>
       <c r="I78">
-        <v>-0.02032177012412778</v>
+        <v>-0.01203772927970811</v>
       </c>
       <c r="J78">
-        <v>-0.002189871252459124</v>
+        <v>0.01126167485744069</v>
       </c>
       <c r="K78">
-        <v>-0.003209137267789083</v>
+        <v>0.1136862484511338</v>
       </c>
       <c r="L78">
-        <v>-0.0009055953000486876</v>
+        <v>0.1322995848939345</v>
       </c>
       <c r="M78">
-        <v>-0.0009055953000486876</v>
+        <v>0.1322995848939345</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>MWI</t>
         </is>
       </c>
     </row>
@@ -4294,38 +4294,38 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>0.004177736563887996</v>
+        <v>0.001930290522889261</v>
       </c>
       <c r="E79">
-        <v>0.005301806677731381</v>
+        <v>0.001757244764324129</v>
       </c>
       <c r="F79">
-        <v>0.7879835719841128</v>
+        <v>1.098475614825172</v>
       </c>
       <c r="G79">
-        <v>0.4307063151829723</v>
+        <v>0.2719968600619706</v>
       </c>
       <c r="H79">
-        <v>1.215223617798507</v>
+        <v>1.878338097820463</v>
       </c>
       <c r="I79">
-        <v>-0.006213613577459465</v>
+        <v>-0.001513845927207606</v>
       </c>
       <c r="J79">
-        <v>0.01456908670523546</v>
+        <v>0.005374426972986128</v>
       </c>
       <c r="K79">
-        <v>0.01206277783755429</v>
+        <v>0.05088090047104436</v>
       </c>
       <c r="L79">
-        <v>0.03519139422484635</v>
+        <v>0.06147841182155651</v>
       </c>
       <c r="M79">
-        <v>0.03519139422484635</v>
+        <v>0.06147841182155651</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>MWI</t>
         </is>
       </c>
     </row>
@@ -4344,38 +4344,38 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>-0.02205140696904524</v>
+        <v>-0.01125582068829345</v>
       </c>
       <c r="E80">
-        <v>0.01374633864858874</v>
+        <v>0.004625569401961151</v>
       </c>
       <c r="F80">
-        <v>-1.604165846103984</v>
+        <v>-2.433391375237221</v>
       </c>
       <c r="G80">
-        <v>0.1086775008941143</v>
+        <v>0.01495812285063439</v>
       </c>
       <c r="H80">
-        <v>3.201874799492002</v>
+        <v>6.062927052249826</v>
       </c>
       <c r="I80">
-        <v>-0.04899373563957016</v>
+        <v>-0.02032177012412778</v>
       </c>
       <c r="J80">
-        <v>0.004890921701479672</v>
+        <v>-0.002189871252459124</v>
       </c>
       <c r="K80">
-        <v>0.04385465104416425</v>
+        <v>-0.003209137267789083</v>
       </c>
       <c r="L80">
-        <v>0.05750935493549124</v>
+        <v>-0.0009055953000486876</v>
       </c>
       <c r="M80">
-        <v>0.05750935493549124</v>
+        <v>-0.0009055953000486876</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>NAM</t>
         </is>
       </c>
     </row>
@@ -4394,38 +4394,38 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>-0.008846422791032859</v>
+        <v>0.004177736563887996</v>
       </c>
       <c r="E81">
-        <v>0.006748186112364652</v>
+        <v>0.005301806677731381</v>
       </c>
       <c r="F81">
-        <v>-1.3109334336265</v>
+        <v>0.7879835719841128</v>
       </c>
       <c r="G81">
-        <v>0.1898802540729958</v>
+        <v>0.4307063151829723</v>
       </c>
       <c r="H81">
-        <v>2.396838209579711</v>
+        <v>1.215223617798507</v>
       </c>
       <c r="I81">
-        <v>-0.02207262453224094</v>
+        <v>-0.006213613577459465</v>
       </c>
       <c r="J81">
-        <v>0.004379778950175219</v>
+        <v>0.01456908670523546</v>
       </c>
       <c r="K81">
-        <v>0.05089313123974336</v>
+        <v>0.01206277783755429</v>
       </c>
       <c r="L81">
-        <v>0.06039928765636846</v>
+        <v>0.03519139422484635</v>
       </c>
       <c r="M81">
-        <v>0.06039928765636846</v>
+        <v>0.03519139422484635</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>NAM</t>
         </is>
       </c>
     </row>
@@ -4444,38 +4444,38 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>-0.0170187143324033</v>
+        <v>-0.02205140696904524</v>
       </c>
       <c r="E82">
-        <v>0.008938605495057211</v>
+        <v>0.01374633864858874</v>
       </c>
       <c r="F82">
-        <v>-1.903956309719022</v>
+        <v>-1.604165846103984</v>
       </c>
       <c r="G82">
-        <v>0.05691587451084696</v>
+        <v>0.1086775008941143</v>
       </c>
       <c r="H82">
-        <v>4.135025096400192</v>
+        <v>3.201874799492002</v>
       </c>
       <c r="I82">
-        <v>-0.03453805917472726</v>
+        <v>-0.04899373563957016</v>
       </c>
       <c r="J82">
-        <v>0.0005006305099206458</v>
+        <v>0.004890921701479672</v>
       </c>
       <c r="K82">
-        <v>0.02020491097230558</v>
+        <v>0.04385465104416425</v>
       </c>
       <c r="L82">
-        <v>0.03500900755113288</v>
+        <v>0.05750935493549124</v>
       </c>
       <c r="M82">
-        <v>0.03500900755113288</v>
+        <v>0.05750935493549124</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>NER</t>
         </is>
       </c>
     </row>
@@ -4494,38 +4494,38 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>-0.005319957361080339</v>
+        <v>-0.008846422791032859</v>
       </c>
       <c r="E83">
-        <v>0.01283804043774433</v>
+        <v>0.006748186112364652</v>
       </c>
       <c r="F83">
-        <v>-0.4143901389685191</v>
+        <v>-1.3109334336265</v>
       </c>
       <c r="G83">
-        <v>0.6785884095300225</v>
+        <v>0.1898802540729958</v>
       </c>
       <c r="H83">
-        <v>0.5593913062418934</v>
+        <v>2.396838209579711</v>
       </c>
       <c r="I83">
-        <v>-0.03048205425112804</v>
+        <v>-0.02207262453224094</v>
       </c>
       <c r="J83">
-        <v>0.01984213952896736</v>
+        <v>0.004379778950175219</v>
       </c>
       <c r="K83">
-        <v>0.1942405782500173</v>
+        <v>0.05089313123974336</v>
       </c>
       <c r="L83">
-        <v>0.1632562254216997</v>
+        <v>0.06039928765636846</v>
       </c>
       <c r="M83">
-        <v>0.1632562254216997</v>
+        <v>0.06039928765636846</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>NER</t>
         </is>
       </c>
     </row>
@@ -4544,38 +4544,38 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>-0.008680709237970617</v>
+        <v>-0.0170187143324033</v>
       </c>
       <c r="E84">
-        <v>0.006054791332632939</v>
+        <v>0.008938605495057211</v>
       </c>
       <c r="F84">
-        <v>-1.433692552076075</v>
+        <v>-1.903956309719022</v>
       </c>
       <c r="G84">
-        <v>0.1516600185486523</v>
+        <v>0.05691587451084696</v>
       </c>
       <c r="H84">
-        <v>2.721087290409971</v>
+        <v>4.135025096400192</v>
       </c>
       <c r="I84">
-        <v>-0.02054788218383645</v>
+        <v>-0.03453805917472726</v>
       </c>
       <c r="J84">
-        <v>0.003186463707895219</v>
+        <v>0.0005006305099206458</v>
       </c>
       <c r="K84">
-        <v>0.04401075110602244</v>
+        <v>0.02020491097230558</v>
       </c>
       <c r="L84">
-        <v>0.03476081400187929</v>
+        <v>0.03500900755113288</v>
       </c>
       <c r="M84">
-        <v>0.03476081400187929</v>
+        <v>0.03500900755113288</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>NIC</t>
         </is>
       </c>
     </row>
@@ -4594,38 +4594,38 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>0.002173054261693501</v>
+        <v>-0.005319957361080339</v>
       </c>
       <c r="E85">
-        <v>0.00519331403853141</v>
+        <v>0.01283804043774433</v>
       </c>
       <c r="F85">
-        <v>0.4184330555731245</v>
+        <v>-0.4143901389685191</v>
       </c>
       <c r="G85">
-        <v>0.6756305225995453</v>
+        <v>0.6785884095300225</v>
       </c>
       <c r="H85">
-        <v>0.5656935894118948</v>
+        <v>0.5593913062418934</v>
       </c>
       <c r="I85">
-        <v>-0.008005654214234319</v>
+        <v>-0.03048205425112804</v>
       </c>
       <c r="J85">
-        <v>0.01235176273762132</v>
+        <v>0.01984213952896736</v>
       </c>
       <c r="K85">
-        <v>0.07765082612219799</v>
+        <v>0.1942405782500173</v>
       </c>
       <c r="L85">
-        <v>0.07202275454208315</v>
+        <v>0.1632562254216997</v>
       </c>
       <c r="M85">
-        <v>0.07202275454208315</v>
+        <v>0.1632562254216997</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>NIC</t>
         </is>
       </c>
     </row>
@@ -4644,38 +4644,38 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>-0.0008563909488739204</v>
+        <v>-0.008680709237970617</v>
       </c>
       <c r="E86">
-        <v>0.003305172300311771</v>
+        <v>0.006054791332632939</v>
       </c>
       <c r="F86">
-        <v>-0.2591062949405508</v>
+        <v>-1.433692552076075</v>
       </c>
       <c r="G86">
-        <v>0.7955532279603386</v>
+        <v>0.1516600185486523</v>
       </c>
       <c r="H86">
-        <v>0.3299696349213423</v>
+        <v>2.721087290409971</v>
       </c>
       <c r="I86">
-        <v>-0.007334409620184394</v>
+        <v>-0.02054788218383645</v>
       </c>
       <c r="J86">
-        <v>0.005621627722436553</v>
+        <v>0.003186463707895219</v>
       </c>
       <c r="K86">
-        <v>0.03114370570862111</v>
+        <v>0.04401075110602244</v>
       </c>
       <c r="L86">
-        <v>0.03176454572017803</v>
+        <v>0.03476081400187929</v>
       </c>
       <c r="M86">
-        <v>0.03176454572017803</v>
+        <v>0.03476081400187929</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>NPL</t>
         </is>
       </c>
     </row>
@@ -4694,38 +4694,38 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>0.002323681031411394</v>
+        <v>0.002173054261693501</v>
       </c>
       <c r="E87">
-        <v>0.001519265678524566</v>
+        <v>0.00519331403853141</v>
       </c>
       <c r="F87">
-        <v>1.529476420258526</v>
+        <v>0.4184330555731245</v>
       </c>
       <c r="G87">
-        <v>0.1261463802241205</v>
+        <v>0.6756305225995453</v>
       </c>
       <c r="H87">
-        <v>2.986829286176287</v>
+        <v>0.5656935894118948</v>
       </c>
       <c r="I87">
-        <v>-0.0006540249814445628</v>
+        <v>-0.008005654214234319</v>
       </c>
       <c r="J87">
-        <v>0.00530138704426735</v>
+        <v>0.01235176273762132</v>
       </c>
       <c r="K87">
-        <v>0.0380100186240891</v>
+        <v>0.07765082612219799</v>
       </c>
       <c r="L87">
-        <v>0.05495594889273153</v>
+        <v>0.07202275454208315</v>
       </c>
       <c r="M87">
-        <v>0.05495594889273153</v>
+        <v>0.07202275454208315</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>NPL</t>
         </is>
       </c>
     </row>
@@ -4744,38 +4744,38 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>-0.0007645940250339919</v>
+        <v>-0.0008563909488739204</v>
       </c>
       <c r="E88">
-        <v>0.001905455648680146</v>
+        <v>0.003305172300311771</v>
       </c>
       <c r="F88">
-        <v>-0.4012657159265838</v>
+        <v>-0.2591062949405508</v>
       </c>
       <c r="G88">
-        <v>0.6882245022175457</v>
+        <v>0.7955532279603386</v>
       </c>
       <c r="H88">
-        <v>0.5390488389669529</v>
+        <v>0.3299696349213423</v>
       </c>
       <c r="I88">
-        <v>-0.004499218470585483</v>
+        <v>-0.007334409620184394</v>
       </c>
       <c r="J88">
-        <v>0.0029700304205175</v>
+        <v>0.005621627722436553</v>
       </c>
       <c r="K88">
-        <v>0.04792278905343837</v>
+        <v>0.03114370570862111</v>
       </c>
       <c r="L88">
-        <v>0.06365353511763754</v>
+        <v>0.03176454572017803</v>
       </c>
       <c r="M88">
-        <v>0.06365353511763754</v>
+        <v>0.03176454572017803</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>PAK</t>
         </is>
       </c>
     </row>
@@ -4794,38 +4794,38 @@
         <v>1</v>
       </c>
       <c r="D89">
-        <v>0.004191084770885631</v>
+        <v>0.002323681031411394</v>
       </c>
       <c r="E89">
-        <v>28.48075482235433</v>
+        <v>0.001519265678524566</v>
       </c>
       <c r="F89">
-        <v>0.0001471549752465156</v>
+        <v>1.529476420258526</v>
       </c>
       <c r="G89">
-        <v>0.9998825873176292</v>
+        <v>0.1261463802241205</v>
       </c>
       <c r="H89">
-        <v>0.0001694006396801293</v>
+        <v>2.986829286176287</v>
       </c>
       <c r="I89">
-        <v>-55.81706261955905</v>
+        <v>-0.0006540249814445628</v>
       </c>
       <c r="J89">
-        <v>55.82544478910083</v>
+        <v>0.00530138704426735</v>
       </c>
       <c r="K89">
-        <v>0.06049479867346266</v>
+        <v>0.0380100186240891</v>
       </c>
       <c r="L89">
-        <v>0.04957439304260673</v>
+        <v>0.05495594889273153</v>
       </c>
       <c r="M89">
-        <v>0.04957439304260673</v>
+        <v>0.05495594889273153</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>PAK</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
         <v>-19.39635120543083</v>
       </c>
       <c r="G92">
-        <v>8.284703442223652e-84</v>
+        <v>8.284703442223652E-84</v>
       </c>
       <c r="H92">
         <v>275.9915099146235</v>
@@ -5153,7 +5153,7 @@
         <v>-5.054992510666321</v>
       </c>
       <c r="G96">
-        <v>4.304076584214776e-07</v>
+        <v>4.304076584214776E-07</v>
       </c>
       <c r="H96">
         <v>21.14779291561907</v>
@@ -6053,7 +6053,7 @@
         <v>4.339134606212159</v>
       </c>
       <c r="G114">
-        <v>1.43044890381576e-05</v>
+        <v>1.43044890381576E-05</v>
       </c>
       <c r="H114">
         <v>16.0931725094763</v>
@@ -6103,7 +6103,7 @@
         <v>9.969683691571918</v>
       </c>
       <c r="G115">
-        <v>2.068866530467991e-23</v>
+        <v>2.068866530467991E-23</v>
       </c>
       <c r="H115">
         <v>75.35550560731437</v>
@@ -6253,7 +6253,7 @@
         <v>7.784427524317362</v>
       </c>
       <c r="G118">
-        <v>7.002957405598494e-15</v>
+        <v>7.002957405598494E-15</v>
       </c>
       <c r="H118">
         <v>47.0209571107747</v>
@@ -6268,10 +6268,10 @@
         <v>0.0003760193039929514</v>
       </c>
       <c r="L118">
-        <v>5.3469544330359e-14</v>
+        <v>5.3469544330359E-14</v>
       </c>
       <c r="M118">
-        <v>5.3469544330359e-14</v>
+        <v>5.3469544330359E-14</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -6318,10 +6318,10 @@
         <v>0.01058574794062437</v>
       </c>
       <c r="L119">
-        <v>-4.315658594378213e-11</v>
+        <v>-4.315658594378213E-11</v>
       </c>
       <c r="M119">
-        <v>-4.315658594378213e-11</v>
+        <v>-4.315658594378213E-11</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>4.250272719883913</v>
       </c>
       <c r="I122">
-        <v>-2.554956700319194e-05</v>
+        <v>-2.554956700319194E-05</v>
       </c>
       <c r="J122">
         <v>0.004669524304917114</v>
